--- a/best_schedule.xlsx
+++ b/best_schedule.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deep Learning</t>
+          <t>Data Management</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Deep Learning</t>
+          <t>Cloud Infrastructure and Services</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Behavioural Science, Social Media and Marketing Analytics</t>
+          <t>Cloud Infrastructure and Services</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Advanced Business Analytics and Visualisation</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Advanced Business Analytics and Visualisation</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Business Intelligence Systems</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Research Methodology for Capstone Project</t>
+          <t>Multilevel Data Analysis</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Multilevel Data Analysis</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Advanced Business Analytics and Visualisation</t>
+          <t>Operational Research and Optimisation</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Advanced Business Analytics and Visualisation</t>
+          <t>Data Analytical Programming</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Big Data Analytics and Technologies</t>
+          <t>Business Intelligence Systems</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Time Series Analysis and Forecasting</t>
+          <t>Big Data Analytics and Technologies</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Data Analytical Programming</t>
+          <t>Data Management</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Behavioural Science, Social Media and Marketing Analytics</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Multivariate Methods for Data Analysis</t>
+          <t>Research Methodology for Capstone Project</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Data Analytical Programming</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Multivariate Methods for Data Analysis</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Business Intelligence Systems</t>
+          <t>Strategies in Emerging Markets</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Multivariate Methods for Data Analysis</t>
+          <t>Strategies in Emerging Markets</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Operational Research and Optimisation</t>
+          <t>Time Series Analysis and Forecasting</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Deep Learning</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Research Methodology for Capstone Project</t>
+          <t>Advanced Business Analytics and Visualisation</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Research Methodology for Capstone Project</t>
+          <t>Business Intelligence Systems</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Time Series Analysis and Forecasting</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Multivariate Methods for Data Analysis</t>
+          <t>Deep Learning</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Data Analytical Programming</t>
+          <t>Time Series Analysis and Forecasting</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Data Analytical Programming</t>
+          <t>Time Series Analysis and Forecasting</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure and Services</t>
+          <t>Behavioural Science, Social Media and Marketing Analytics</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Research Methodology for Capstone Project</t>
+          <t>Cloud Infrastructure and Services</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Research Methodology for Capstone Project</t>
+          <t>Business Intelligence Systems</t>
         </is>
       </c>
     </row>
